--- a/alcaldes 2021/primarias 2020.xlsx
+++ b/alcaldes 2021/primarias 2020.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\alcaldes 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801BA086-C284-4A5B-A296-DCC820608073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F72C4B-1A09-49DD-8D8C-09ECE3BEB3D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tresquintos.cl" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tresquintos.cl!$A$1:$I$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="282">
   <si>
     <t>id</t>
   </si>
@@ -369,15 +370,6 @@
     <t>Carahue</t>
   </si>
   <si>
-    <t>Paredones</t>
-  </si>
-  <si>
-    <t>Pelarco</t>
-  </si>
-  <si>
-    <t>Mariquina</t>
-  </si>
-  <si>
     <t>San Pablo</t>
   </si>
   <si>
@@ -474,9 +466,6 @@
     <t>La Unión</t>
   </si>
   <si>
-    <t>Lota</t>
-  </si>
-  <si>
     <t>Lumaco</t>
   </si>
   <si>
@@ -486,9 +475,6 @@
     <t>Angol</t>
   </si>
   <si>
-    <t>Melipeuco</t>
-  </si>
-  <si>
     <t>Til Til</t>
   </si>
   <si>
@@ -498,9 +484,6 @@
     <t>Alto del Carmen</t>
   </si>
   <si>
-    <t>Puerto Octay</t>
-  </si>
-  <si>
     <t>tipo</t>
   </si>
   <si>
@@ -531,9 +514,6 @@
     <t>Cerrillos</t>
   </si>
   <si>
-    <t> XIMENA MARTINA LARENAS HENRIQUEZ</t>
-  </si>
-  <si>
     <t>Ecologistas</t>
   </si>
   <si>
@@ -745,6 +725,165 @@
   </si>
   <si>
     <t>legales</t>
+  </si>
+  <si>
+    <t>XIMENA MARTINA LARENAS HENRIQUEZ</t>
+  </si>
+  <si>
+    <t>Roberto Carlos Soto Alballay</t>
+  </si>
+  <si>
+    <t>Pedro Pablo Ogalde Meneses</t>
+  </si>
+  <si>
+    <t>Maximiliano Alberto Barrionuevo Garcia</t>
+  </si>
+  <si>
+    <t>Daniela Cecilia Solari Vega</t>
+  </si>
+  <si>
+    <t>Pedro Antonio Castillo Castillo</t>
+  </si>
+  <si>
+    <t>Jorge Antonio Valdovinos Gomez</t>
+  </si>
+  <si>
+    <t>Dino Paolo Lotito Flores</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo Bannen Gonzalez</t>
+  </si>
+  <si>
+    <t>Margarita Andrea Velez Malgue</t>
+  </si>
+  <si>
+    <t>Valeria Andrea Melipillan Figueroa</t>
+  </si>
+  <si>
+    <t>Veronica Alejandra Barrera Alfaro</t>
+  </si>
+  <si>
+    <t>Cristian Alejandro Luna Salinas</t>
+  </si>
+  <si>
+    <t>Macarena Carolina Ripamonti Serrano</t>
+  </si>
+  <si>
+    <t>Camila Merino Catalan</t>
+  </si>
+  <si>
+    <t>Alejandro Isidoro Almendares Calderon</t>
+  </si>
+  <si>
+    <t>Eva Vargas Aburto</t>
+  </si>
+  <si>
+    <t>Juan Cristobal Lira Ibañez</t>
+  </si>
+  <si>
+    <t>Felipe Mora Morgado</t>
+  </si>
+  <si>
+    <t>Rodrigo Contreras Gutierrez</t>
+  </si>
+  <si>
+    <t>Patricia Acevedo Gonzalez</t>
+  </si>
+  <si>
+    <t>Viviana Soledad Delgado Riquelme</t>
+  </si>
+  <si>
+    <t>Juan Pablo Sanhueza Tortella</t>
+  </si>
+  <si>
+    <t>Erika Paulina Martinez Osorio</t>
+  </si>
+  <si>
+    <t>Tomas Vodanovic Escudero</t>
+  </si>
+  <si>
+    <t>Luis Andres Valenzuela Cruzat</t>
+  </si>
+  <si>
+    <t>Felix Andres Sanchez Vergara</t>
+  </si>
+  <si>
+    <t>Hector Labbe Valenzuela</t>
+  </si>
+  <si>
+    <t>Gonzalo Alberto Ortega Prieto</t>
+  </si>
+  <si>
+    <t>Maria Victoria Cavieres Paiva</t>
+  </si>
+  <si>
+    <t>Williams Valenzuela Villalobos</t>
+  </si>
+  <si>
+    <t>Macarena Pons Porcile</t>
+  </si>
+  <si>
+    <t>Rodrigo Antonio Arzola Helo</t>
+  </si>
+  <si>
+    <t>Juan Pablo Spoerer Brito</t>
+  </si>
+  <si>
+    <t>Ximena Martina Larenas Henriquez</t>
+  </si>
+  <si>
+    <t>Jose Guido Barria Oyarzun</t>
+  </si>
+  <si>
+    <t>Daniel Schmidt Mc Lachlan</t>
+  </si>
+  <si>
+    <t>Raul Roberto Henriquez Burgos</t>
+  </si>
+  <si>
+    <t>Jessica Alejandra Mendez Canaves</t>
+  </si>
+  <si>
+    <t>Jesica Barrientos Duran</t>
+  </si>
+  <si>
+    <t>Eugenio Alejandro Canales Canales</t>
+  </si>
+  <si>
+    <t>Rodrigo Vargas Briones</t>
+  </si>
+  <si>
+    <t>Cristián Olivares</t>
+  </si>
+  <si>
+    <t>Patricio Silva González</t>
+  </si>
+  <si>
+    <t>Bárbara González Zúñiga</t>
+  </si>
+  <si>
+    <t>Roberto Pérez Catalán</t>
+  </si>
+  <si>
+    <t>Felipe Muñoz Heredia</t>
+  </si>
+  <si>
+    <t>Gonzalo Gayoso</t>
+  </si>
+  <si>
+    <t>Carlos de la Cruz</t>
+  </si>
+  <si>
+    <t>Pedro Vera Paredes</t>
+  </si>
+  <si>
+    <t>Eduardo Contreras Díaz</t>
+  </si>
+  <si>
+    <t>Irenia Quintana González</t>
+  </si>
+  <si>
+    <t>Jorge Figueroa Fuentes</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1122,22 +1261,28 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1145,25 +1290,25 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1174,7 +1319,7 @@
         <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1183,16 +1328,16 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1203,25 +1348,25 @@
         <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1232,25 +1377,25 @@
         <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1261,7 +1406,7 @@
         <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1273,13 +1418,13 @@
         <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1290,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1302,13 +1447,13 @@
         <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1319,22 +1464,28 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>271</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1342,25 +1493,25 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H10" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1371,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1383,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1406,19 +1557,19 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1435,19 +1586,19 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H13" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1467,16 +1618,16 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" t="s">
-        <v>235</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1496,16 +1647,16 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H15" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1525,16 +1676,16 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1542,7 +1693,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -1551,27 +1702,27 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -1580,27 +1731,27 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="H18" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
@@ -1609,19 +1760,19 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1644,13 +1795,13 @@
         <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1658,7 +1809,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -1667,19 +1818,19 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1687,7 +1838,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>50</v>
@@ -1696,19 +1847,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1716,7 +1867,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -1725,27 +1876,27 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
@@ -1754,19 +1905,19 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G24" t="s">
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1774,7 +1925,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
@@ -1783,19 +1934,19 @@
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1803,7 +1954,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -1812,19 +1963,19 @@
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1832,7 +1983,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>50</v>
@@ -1841,19 +1992,19 @@
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1861,7 +2012,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -1870,19 +2021,19 @@
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1890,7 +2041,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
@@ -1899,19 +2050,19 @@
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1919,7 +2070,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
@@ -1928,27 +2079,27 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -1957,27 +2108,27 @@
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G31" t="s">
         <v>40</v>
       </c>
       <c r="H31" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -1986,19 +2137,19 @@
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2006,7 +2157,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -2015,19 +2166,19 @@
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -2035,7 +2186,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
         <v>50</v>
@@ -2044,135 +2195,135 @@
         <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C35">
         <v>5.5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C36">
         <v>5.5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="H36" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C37">
         <v>5.5</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="H37" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C38">
         <v>5.5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G38" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H38" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2180,89 +2331,89 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C39">
         <v>5.5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C40">
         <v>5.5</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="H40" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C41">
         <v>5.5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H41" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2270,25 +2421,25 @@
         <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C42">
         <v>5.5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F42" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G42" t="s">
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -2296,28 +2447,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C43">
         <v>5.5</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F43" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G43" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="H43" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2325,60 +2476,60 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C44">
         <v>5.5</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F44" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="H44" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C45">
         <v>5.5</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F45" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G45" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2386,25 +2537,25 @@
         <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C46">
         <v>5.5</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F46" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G46" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H46" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2415,7 +2566,7 @@
         <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C47">
         <v>5.5</v>
@@ -2427,13 +2578,13 @@
         <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G47" t="s">
         <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2441,28 +2592,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C48">
         <v>5.5</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="F48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2470,28 +2621,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C49">
         <v>5.5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G49" t="s">
         <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2499,28 +2650,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C50">
         <v>5.5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2528,86 +2679,86 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C51">
         <v>5.5</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G51" t="s">
         <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C52">
         <v>5.5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G52" t="s">
         <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C53">
         <v>5.5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2615,28 +2766,28 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C54">
         <v>5.5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2644,48 +2795,60 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C55">
         <v>5.5</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C56">
         <v>5.5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>150</v>
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2693,7 +2856,7 @@
         <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C57">
         <v>5.5</v>
@@ -2705,13 +2868,13 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2719,77 +2882,89 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C58">
         <v>5.5</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
+      </c>
+      <c r="E58" t="s">
+        <v>275</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C59">
         <v>5.5</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C60">
         <v>5.5</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
+      </c>
+      <c r="E60" t="s">
+        <v>273</v>
       </c>
       <c r="F60" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2797,25 +2972,25 @@
         <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C61">
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E61" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F61" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G61" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H61" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2826,25 +3001,25 @@
         <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C62">
         <v>6</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E62" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F62" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G62" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H62" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2855,25 +3030,25 @@
         <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C63">
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F63" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G63" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H63" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2884,25 +3059,25 @@
         <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C64">
         <v>6</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F64" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G64" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H64" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -2913,7 +3088,7 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -2925,13 +3100,13 @@
         <v>94</v>
       </c>
       <c r="F65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G65" t="s">
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2942,7 +3117,7 @@
         <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C66">
         <v>6</v>
@@ -2954,13 +3129,13 @@
         <v>98</v>
       </c>
       <c r="F66" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G66" t="s">
         <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2968,83 +3143,89 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C67">
         <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F67" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H67" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C68">
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>105</v>
       </c>
       <c r="F68" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="F69" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H69" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3052,25 +3233,25 @@
         <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C70">
         <v>7</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G70" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H70" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3078,28 +3259,28 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C71">
         <v>7</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="E71" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -3110,7 +3291,7 @@
         <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C72">
         <v>7</v>
@@ -3122,13 +3303,13 @@
         <v>78</v>
       </c>
       <c r="F72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G72" t="s">
         <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3136,80 +3317,86 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C73">
         <v>7</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="E73" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="F73" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H73" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>161</v>
+      </c>
+      <c r="E74" t="s">
+        <v>160</v>
       </c>
       <c r="F74" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>155</v>
+        <v>228</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3217,28 +3404,28 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C76">
         <v>7.5</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="F76" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3246,28 +3433,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C77">
         <v>7.5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E77" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F77" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H77" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3275,28 +3462,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C78">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="E78" t="s">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="H78" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3304,57 +3491,57 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C79">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="F79" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H79" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C80">
         <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="G80" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3362,86 +3549,86 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C81">
         <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="F81" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C82">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F82" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H82" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C83">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F83" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G83" t="s">
         <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3449,86 +3636,86 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C84">
         <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F84" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G84" t="s">
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C85">
         <v>8</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E85" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F85" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C86">
         <v>8</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="F86" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H86" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3536,155 +3723,173 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C87">
         <v>8</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="E87" t="s">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="F87" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H87" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" t="s">
+        <v>181</v>
+      </c>
+      <c r="F88" t="s">
         <v>156</v>
       </c>
-      <c r="C88">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F88" t="s">
-        <v>121</v>
-      </c>
       <c r="G88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H88" t="s">
-        <v>155</v>
+        <v>228</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" t="s">
         <v>156</v>
       </c>
-      <c r="C89">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F89" t="s">
-        <v>121</v>
-      </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="H89" t="s">
-        <v>155</v>
+        <v>228</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E90" t="s">
+        <v>214</v>
+      </c>
+      <c r="F90" t="s">
         <v>156</v>
       </c>
-      <c r="C90">
-        <v>8</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90" t="s">
-        <v>121</v>
-      </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H90" t="s">
-        <v>155</v>
+        <v>228</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C91">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="E91" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="F91" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="H91" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C92">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="H92" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -3692,28 +3897,28 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C93">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="E93" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="F93" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="G93" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="H93" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -3721,86 +3926,86 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C94">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="E94" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="F94" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="G94" t="s">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C95">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="E95" t="s">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H95" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C96">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="E96" t="s">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="F96" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H96" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -3808,149 +4013,173 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C97">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>171</v>
+      </c>
+      <c r="E97" t="s">
+        <v>170</v>
       </c>
       <c r="F97" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="H97" t="s">
-        <v>155</v>
+        <v>228</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C98">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>148</v>
+        <v>57</v>
+      </c>
+      <c r="E98" t="s">
+        <v>281</v>
       </c>
       <c r="F98" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G98" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="H98" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>149</v>
+        <v>74</v>
+      </c>
+      <c r="E99" t="s">
+        <v>75</v>
       </c>
       <c r="F99" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="E100" t="s">
+        <v>61</v>
       </c>
       <c r="F100" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G100" t="s">
         <v>40</v>
       </c>
       <c r="H100" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C101">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="E101" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="G101" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="H101" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C102">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E102" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H102" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -3958,103 +4187,115 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C103">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
+      </c>
+      <c r="E103" t="s">
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H103" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C104">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E104" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F104" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
       </c>
       <c r="H104" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C105">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>144</v>
+        <v>110</v>
+      </c>
+      <c r="E105" t="s">
+        <v>111</v>
       </c>
       <c r="F105" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G105" t="s">
         <v>40</v>
       </c>
       <c r="H105" t="s">
-        <v>155</v>
+        <v>149</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C106">
         <v>10</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H106" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -4062,28 +4303,28 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="E107" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="F107" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H107" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4091,208 +4332,624 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C108">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>153</v>
+        <v>45</v>
+      </c>
+      <c r="E108" t="s">
+        <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
       </c>
       <c r="H108" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>34</v>
-      </c>
-      <c r="B109" t="s">
-        <v>133</v>
-      </c>
-      <c r="C109">
-        <v>10</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E109" t="s">
-        <v>55</v>
-      </c>
-      <c r="F109" t="s">
-        <v>121</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
-      <c r="H109" t="s">
-        <v>155</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>35</v>
-      </c>
-      <c r="B110" t="s">
-        <v>133</v>
-      </c>
-      <c r="C110">
-        <v>10</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E110" t="s">
-        <v>48</v>
-      </c>
-      <c r="F110" t="s">
-        <v>121</v>
-      </c>
-      <c r="G110" t="s">
-        <v>40</v>
-      </c>
-      <c r="H110" t="s">
-        <v>155</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>49</v>
-      </c>
-      <c r="B111" t="s">
-        <v>133</v>
-      </c>
-      <c r="C111">
-        <v>10</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E111" t="s">
-        <v>114</v>
-      </c>
-      <c r="F111" t="s">
-        <v>121</v>
-      </c>
-      <c r="G111" t="s">
-        <v>40</v>
-      </c>
-      <c r="H111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>42</v>
-      </c>
-      <c r="B112" t="s">
-        <v>133</v>
-      </c>
-      <c r="C112">
-        <v>10</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E112" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" t="s">
-        <v>121</v>
-      </c>
-      <c r="G112" t="s">
-        <v>40</v>
-      </c>
-      <c r="H112" t="s">
-        <v>155</v>
-      </c>
-      <c r="I112">
+        <v>149</v>
+      </c>
+      <c r="I108">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
-        <v>137</v>
-      </c>
-      <c r="C113">
-        <v>11</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E113" t="s">
-        <v>180</v>
-      </c>
-      <c r="F113" t="s">
-        <v>162</v>
-      </c>
-      <c r="G113" t="s">
-        <v>41</v>
-      </c>
-      <c r="H113" t="s">
-        <v>235</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>16</v>
-      </c>
-      <c r="B114" t="s">
-        <v>137</v>
-      </c>
-      <c r="C114">
-        <v>11</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E114" t="s">
-        <v>49</v>
-      </c>
-      <c r="F114" t="s">
-        <v>121</v>
-      </c>
-      <c r="G114" t="s">
-        <v>16</v>
-      </c>
-      <c r="H114" t="s">
-        <v>155</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{B072A6EC-B860-48D4-94B3-D42247BE32FD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I114">
-      <sortCondition ref="C1"/>
+  <autoFilter ref="A1:I108" xr:uid="{B072A6EC-B860-48D4-94B3-D42247BE32FD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I108">
+      <sortCondition ref="A1:A108"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I114">
+    <sortCondition ref="C2:C114"/>
+    <sortCondition ref="F2:F114"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D950177-C3B7-40F5-A835-2B6503AED989}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>